--- a/magnetic/documents/协议.xlsx
+++ b/magnetic/documents/协议.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\git\Hardware\地磁\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\git\Hardware\magnetic\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4645C8B2-C1E8-48B5-9897-2778E307739A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="13164" yWindow="2076" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>报头</t>
   </si>
@@ -991,83 +992,34 @@
   </si>
   <si>
     <r>
-      <t>Data[3]:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>节点产生数据时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>至</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>节点将数据数据发出来的时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>间隔，单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>100ms</t>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：功能码总共有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>16*4</t>
     </r>
     <r>
       <rPr>
@@ -1086,314 +1038,202 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>bit8~15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）。</t>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）个。其中功能码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x8*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x9*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0xA*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是节点主动上报给基站的通信协议；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0xF*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>是基站主动读</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>写节点的通信协议。功能码分配如下，以后可扩展。基站会对旗下节点发送的数据进行回复，回复规则是节点数据功能码必须是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x80~0x8F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0x90~0x9F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0xA0~0xAF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0xF0~0xFF</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Data[6]: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>位置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>码，供转接板通道号（或</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保留）</t>
-    </r>
+    <t>Data[1]: 位置0码，供转接板通道号（或 保留）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Data[9]:过车数量，高8位 单位：1辆。</t>
+    <t>Data[3]:过车数量，高8位 单位：1辆。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Data[12]:平均占道时长，低8位 单位：10ms。</t>
+    <t>Data[4]:平均占道时长，低8位 单位：10ms。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>功能码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：功能码总共有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>16*4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>64</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）个。其中功能码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0x8*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0x9*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0xA*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是节点主动上报给基站的通信协议；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0xF*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是基站主动读</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>写节点的通信协议。功能码分配如下，以后可扩展。基站会对旗下节点发送的数据进行回复，回复规则是节点数据功能码必须是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0x80~0x8F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0x90~0x9F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0xA0~0xAF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0xF0~0xFF</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>基站回复内容</t>
+    <t>Data[2]:间隔时间，高8位 单位：1s。发送周期</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1818,11 +1658,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AB29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:AB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1880,7 +1720,7 @@
     </row>
     <row r="7" spans="2:28" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1991,7 +1831,7 @@
     </row>
     <row r="14" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2068,7 +1908,7 @@
     </row>
     <row r="17" spans="2:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -2214,11 +2054,6 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
